--- a/materials/work_log.xlsx
+++ b/materials/work_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
@@ -46,6 +46,9 @@
 * Setted Up Development Environment
 * Review Examination Objectives
 * Organizing Objectives</t>
+  </si>
+  <si>
+    <t>Various Things</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +489,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materials/work_log.xlsx
+++ b/materials/work_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -50,13 +50,19 @@
   <si>
     <t>Various Things</t>
   </si>
+  <si>
+    <t>Started coding Day 2</t>
+  </si>
+  <si>
+    <t>Done Coding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,12 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -109,7 +115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -119,6 +125,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +511,25 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>42305</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
